--- a/state_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
+++ b/state_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006150701733855</v>
+        <v>0.0061628277496338</v>
       </c>
       <c r="H2" t="n">
         <v>0.018</v>
@@ -651,7 +651,7 @@
         <v>0.006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006150701733855</v>
+        <v>0.0061628277496338</v>
       </c>
       <c r="H3" t="n">
         <v>0.018</v>
@@ -729,24 +729,24 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0012</v>
+        <v>0.00127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0033605653841989</v>
+        <v>0.0034392679810637</v>
       </c>
       <c r="H4" t="n">
         <v>0.0428874502007659</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01183</v>
+        <v>0.01224</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00117</v>
+        <v>0.00128</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00477</v>
+        <v>0.00506</v>
       </c>
       <c r="N4" t="n">
         <v>0.009299999999999999</v>
@@ -810,24 +810,24 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0012</v>
+        <v>0.00127</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0033605653841989</v>
+        <v>0.0034392679810637</v>
       </c>
       <c r="H5" t="n">
         <v>0.0428874502007659</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01183</v>
+        <v>0.01224</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.00117</v>
+        <v>0.00128</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00477</v>
+        <v>0.00506</v>
       </c>
       <c r="N5" t="n">
         <v>0.009299999999999999</v>
@@ -894,7 +894,7 @@
         <v>0.016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0242018613418763</v>
+        <v>0.0242244903505079</v>
       </c>
       <c r="H6" t="n">
         <v>0.147</v>
@@ -975,7 +975,7 @@
         <v>0.016</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0242018613418763</v>
+        <v>0.0242244903505079</v>
       </c>
       <c r="H7" t="n">
         <v>0.147</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.023</v>
+        <v>0.02315</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0327008241417926</v>
+        <v>0.0328140982573387</v>
       </c>
       <c r="H8" t="n">
         <v>0.155</v>
@@ -1069,7 +1069,7 @@
         <v>0.05302</v>
       </c>
       <c r="N8" t="n">
-        <v>0.065</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="O8" t="n">
         <v>1820194.67</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.023</v>
+        <v>0.02315</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0327008241417926</v>
+        <v>0.0328140982573387</v>
       </c>
       <c r="H9" t="n">
         <v>0.155</v>
@@ -1146,7 +1146,7 @@
         <v>0.05302</v>
       </c>
       <c r="N9" t="n">
-        <v>0.065</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="O9" t="n">
         <v>1820194.67</v>
@@ -1206,7 +1206,7 @@
         <v>0.083</v>
       </c>
       <c r="G10" t="n">
-        <v>0.100348406352673</v>
+        <v>0.100146602110766</v>
       </c>
       <c r="H10" t="n">
         <v>0.25</v>
@@ -1283,7 +1283,7 @@
         <v>0.083</v>
       </c>
       <c r="G11" t="n">
-        <v>0.100348406352673</v>
+        <v>0.100146602110766</v>
       </c>
       <c r="H11" t="n">
         <v>0.25</v>
@@ -1360,7 +1360,7 @@
         <v>0.008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0091573167316577</v>
+        <v>0.0091471209220361</v>
       </c>
       <c r="H12" t="n">
         <v>0.024</v>
@@ -1437,7 +1437,7 @@
         <v>0.008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0091573167316577</v>
+        <v>0.0091471209220361</v>
       </c>
       <c r="H13" t="n">
         <v>0.024</v>
@@ -1676,7 +1676,7 @@
         <v>0.005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0057029764775826</v>
+        <v>0.0057276052363774</v>
       </c>
       <c r="H16" t="n">
         <v>0.018</v>
@@ -1757,7 +1757,7 @@
         <v>0.005</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0057029764775826</v>
+        <v>0.0057276052363774</v>
       </c>
       <c r="H17" t="n">
         <v>0.018</v>
@@ -1912,24 +1912,24 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0014</v>
+        <v>0.00151</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0033925463953327</v>
+        <v>0.0034703902475815</v>
       </c>
       <c r="H19" t="n">
         <v>0.0428874502007659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0098</v>
+        <v>0.01033</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.00149</v>
+        <v>0.00152</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00466</v>
+        <v>0.00488</v>
       </c>
       <c r="N19" t="n">
         <v>0.00923</v>
@@ -1993,24 +1993,24 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0014</v>
+        <v>0.00151</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0033925463953327</v>
+        <v>0.0034703902475815</v>
       </c>
       <c r="H20" t="n">
         <v>0.0428874502007659</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0098</v>
+        <v>0.01033</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00149</v>
+        <v>0.00152</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00466</v>
+        <v>0.00488</v>
       </c>
       <c r="N20" t="n">
         <v>0.00923</v>
@@ -2077,7 +2077,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0243396708916829</v>
+        <v>0.0243577740985882</v>
       </c>
       <c r="H21" t="n">
         <v>0.147</v>
@@ -2158,7 +2158,7 @@
         <v>0.02</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0243396708916829</v>
+        <v>0.0243577740985882</v>
       </c>
       <c r="H22" t="n">
         <v>0.147</v>
@@ -2312,7 +2312,7 @@
         <v>0.027</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0326879320407068</v>
+        <v>0.0327785513331437</v>
       </c>
       <c r="H24" t="n">
         <v>0.155</v>
@@ -2329,7 +2329,7 @@
         <v>0.05045</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0659</v>
+        <v>0.06598999999999999</v>
       </c>
       <c r="O24" t="n">
         <v>1820194.67</v>
@@ -2389,7 +2389,7 @@
         <v>0.027</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0326879320407068</v>
+        <v>0.0327785513331437</v>
       </c>
       <c r="H25" t="n">
         <v>0.155</v>
@@ -2406,7 +2406,7 @@
         <v>0.05045</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0659</v>
+        <v>0.06598999999999999</v>
       </c>
       <c r="O25" t="n">
         <v>1820194.67</v>
@@ -2466,7 +2466,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.101962619873425</v>
+        <v>0.101801923903017</v>
       </c>
       <c r="H26" t="n">
         <v>0.26</v>
@@ -2543,7 +2543,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.101962619873425</v>
+        <v>0.101801923903017</v>
       </c>
       <c r="H27" t="n">
         <v>0.26</v>
@@ -2620,7 +2620,7 @@
         <v>0.008</v>
       </c>
       <c r="G28" t="n">
-        <v>0.009384529990023699</v>
+        <v>0.009376411104584301</v>
       </c>
       <c r="H28" t="n">
         <v>0.024</v>
@@ -2697,7 +2697,7 @@
         <v>0.008</v>
       </c>
       <c r="G29" t="n">
-        <v>0.009384529990023699</v>
+        <v>0.009376411104584301</v>
       </c>
       <c r="H29" t="n">
         <v>0.024</v>
@@ -2936,7 +2936,7 @@
         <v>0.005</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0051807133424049</v>
+        <v>0.0052096439645985</v>
       </c>
       <c r="H32" t="n">
         <v>0.013</v>
@@ -3017,7 +3017,7 @@
         <v>0.005</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0051807133424049</v>
+        <v>0.0052096439645985</v>
       </c>
       <c r="H33" t="n">
         <v>0.013</v>
@@ -3172,27 +3172,27 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.00195</v>
+        <v>0.00205</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0033312113450924</v>
+        <v>0.003362502578488</v>
       </c>
       <c r="H35" t="n">
         <v>0.0164395627717916</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01067</v>
+        <v>0.01039</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.00296</v>
+        <v>0.00311</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00578</v>
+        <v>0.0056</v>
       </c>
       <c r="N35" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.00946</v>
       </c>
       <c r="O35" t="n">
         <v>1820194.67</v>
@@ -3253,27 +3253,27 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.00195</v>
+        <v>0.00205</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0033312113450924</v>
+        <v>0.003362502578488</v>
       </c>
       <c r="H36" t="n">
         <v>0.0164395627717916</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01067</v>
+        <v>0.01039</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.00296</v>
+        <v>0.00311</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00578</v>
+        <v>0.0056</v>
       </c>
       <c r="N36" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.00946</v>
       </c>
       <c r="O36" t="n">
         <v>1820194.67</v>
@@ -3337,7 +3337,7 @@
         <v>0.021</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0272539304922467</v>
+        <v>0.0272708063630906</v>
       </c>
       <c r="H37" t="n">
         <v>0.147</v>
@@ -3418,7 +3418,7 @@
         <v>0.021</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0272539304922467</v>
+        <v>0.0272708063630906</v>
       </c>
       <c r="H38" t="n">
         <v>0.147</v>
@@ -3572,7 +3572,7 @@
         <v>0.028</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0346073942752352</v>
+        <v>0.0346833953105577</v>
       </c>
       <c r="H40" t="n">
         <v>0.155</v>
@@ -3589,7 +3589,7 @@
         <v>0.05141</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0689</v>
+        <v>0.06892</v>
       </c>
       <c r="O40" t="n">
         <v>1820194.67</v>
@@ -3649,7 +3649,7 @@
         <v>0.028</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0346073942752352</v>
+        <v>0.0346833953105577</v>
       </c>
       <c r="H41" t="n">
         <v>0.155</v>
@@ -3666,7 +3666,7 @@
         <v>0.05141</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0689</v>
+        <v>0.06892</v>
       </c>
       <c r="O41" t="n">
         <v>1820194.67</v>
@@ -3726,7 +3726,7 @@
         <v>0.09</v>
       </c>
       <c r="G42" t="n">
-        <v>0.104575957172287</v>
+        <v>0.104428879504457</v>
       </c>
       <c r="H42" t="n">
         <v>0.26</v>
@@ -3803,7 +3803,7 @@
         <v>0.09</v>
       </c>
       <c r="G43" t="n">
-        <v>0.104575957172287</v>
+        <v>0.104428879504457</v>
       </c>
       <c r="H43" t="n">
         <v>0.26</v>
@@ -3880,7 +3880,7 @@
         <v>0.008</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008809569821377599</v>
+        <v>0.008802138977077101</v>
       </c>
       <c r="H44" t="n">
         <v>0.022</v>
@@ -3957,7 +3957,7 @@
         <v>0.008</v>
       </c>
       <c r="G45" t="n">
-        <v>0.008809569821377599</v>
+        <v>0.008802138977077101</v>
       </c>
       <c r="H45" t="n">
         <v>0.022</v>
@@ -4196,7 +4196,7 @@
         <v>0.005</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0046742500966283</v>
+        <v>0.0047025042066702</v>
       </c>
       <c r="H48" t="n">
         <v>0.013</v>
@@ -4277,7 +4277,7 @@
         <v>0.005</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0046742500966283</v>
+        <v>0.0047025042066702</v>
       </c>
       <c r="H49" t="n">
         <v>0.013</v>
@@ -4435,24 +4435,24 @@
         <v>0.00227</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00323067043166</v>
+        <v>0.0032581188045955</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0127303925283493</v>
+        <v>0.0125883538447549</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01081</v>
+        <v>0.01043</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.00347</v>
+        <v>0.00351</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0047</v>
+        <v>0.00496</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00988</v>
+        <v>0.00957</v>
       </c>
       <c r="O51" t="n">
         <v>1820194.67</v>
@@ -4516,24 +4516,24 @@
         <v>0.00227</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00323067043166</v>
+        <v>0.0032581188045955</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0127303925283493</v>
+        <v>0.0125883538447549</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01081</v>
+        <v>0.01043</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.00347</v>
+        <v>0.00351</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0047</v>
+        <v>0.00496</v>
       </c>
       <c r="N52" t="n">
-        <v>0.00988</v>
+        <v>0.00957</v>
       </c>
       <c r="O52" t="n">
         <v>1820194.67</v>
@@ -4597,7 +4597,7 @@
         <v>0.0245</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0310462396386648</v>
+        <v>0.0310634064727991</v>
       </c>
       <c r="H53" t="n">
         <v>0.147</v>
@@ -4678,7 +4678,7 @@
         <v>0.0245</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0310462396386648</v>
+        <v>0.0310634064727991</v>
       </c>
       <c r="H54" t="n">
         <v>0.147</v>
@@ -4832,13 +4832,13 @@
         <v>0.032</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0378937286592909</v>
+        <v>0.0379417297124638</v>
       </c>
       <c r="H56" t="n">
         <v>0.155</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0844</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4909,13 +4909,13 @@
         <v>0.032</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0378937286592909</v>
+        <v>0.0379417297124638</v>
       </c>
       <c r="H57" t="n">
         <v>0.155</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0844</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
         <v>0.1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.112672187487174</v>
+        <v>0.112574497649585</v>
       </c>
       <c r="H58" t="n">
         <v>0.26</v>
@@ -5063,7 +5063,7 @@
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.112672187487174</v>
+        <v>0.112574497649585</v>
       </c>
       <c r="H59" t="n">
         <v>0.26</v>
@@ -5140,7 +5140,7 @@
         <v>0.008</v>
       </c>
       <c r="G60" t="n">
-        <v>0.008720079645884201</v>
+        <v>0.008712520683578501</v>
       </c>
       <c r="H60" t="n">
         <v>0.022</v>
@@ -5217,7 +5217,7 @@
         <v>0.008</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008720079645884201</v>
+        <v>0.008712520683578501</v>
       </c>
       <c r="H61" t="n">
         <v>0.022</v>
@@ -5456,7 +5456,7 @@
         <v>0.005</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0044180211449568</v>
+        <v>0.0044411993690501</v>
       </c>
       <c r="H64" t="n">
         <v>0.011</v>
@@ -5537,7 +5537,7 @@
         <v>0.005</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0044180211449568</v>
+        <v>0.0044411993690501</v>
       </c>
       <c r="H65" t="n">
         <v>0.011</v>
@@ -5692,27 +5692,27 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.00267</v>
+        <v>0.00271</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0036071963036358</v>
+        <v>0.0036123827689486</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0127303925283493</v>
+        <v>0.0125883538447549</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01086</v>
+        <v>0.01044</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.00403</v>
+        <v>0.00391</v>
       </c>
       <c r="M67" t="n">
-        <v>0.00543</v>
+        <v>0.00514</v>
       </c>
       <c r="N67" t="n">
-        <v>0.00988</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="O67" t="n">
         <v>1820194.67</v>
@@ -5773,27 +5773,27 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.00267</v>
+        <v>0.00271</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0036071963036358</v>
+        <v>0.0036123827689486</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0127303925283493</v>
+        <v>0.0125883538447549</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01086</v>
+        <v>0.01044</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.00403</v>
+        <v>0.00391</v>
       </c>
       <c r="M68" t="n">
-        <v>0.00543</v>
+        <v>0.00514</v>
       </c>
       <c r="N68" t="n">
-        <v>0.00988</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="O68" t="n">
         <v>1820194.67</v>
@@ -5857,7 +5857,7 @@
         <v>0.026</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0316476578408489</v>
+        <v>0.0316612533081511</v>
       </c>
       <c r="H69" t="n">
         <v>0.08500000000000001</v>
@@ -5938,7 +5938,7 @@
         <v>0.026</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0316476578408489</v>
+        <v>0.0316612533081511</v>
       </c>
       <c r="H70" t="n">
         <v>0.08500000000000001</v>
@@ -6092,7 +6092,7 @@
         <v>0.033</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0384365237940892</v>
+        <v>0.0384730697567702</v>
       </c>
       <c r="H72" t="n">
         <v>0.091</v>
@@ -6169,7 +6169,7 @@
         <v>0.033</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0384365237940892</v>
+        <v>0.0384730697567702</v>
       </c>
       <c r="H73" t="n">
         <v>0.091</v>
@@ -6246,7 +6246,7 @@
         <v>0.11</v>
       </c>
       <c r="G74" t="n">
-        <v>0.117313491702026</v>
+        <v>0.117265642268628</v>
       </c>
       <c r="H74" t="n">
         <v>0.28</v>
@@ -6323,7 +6323,7 @@
         <v>0.11</v>
       </c>
       <c r="G75" t="n">
-        <v>0.117313491702026</v>
+        <v>0.117265642268628</v>
       </c>
       <c r="H75" t="n">
         <v>0.28</v>
@@ -6400,7 +6400,7 @@
         <v>0.008</v>
       </c>
       <c r="G76" t="n">
-        <v>0.009338181065839101</v>
+        <v>0.0093343855663514</v>
       </c>
       <c r="H76" t="n">
         <v>0.023</v>
@@ -6477,7 +6477,7 @@
         <v>0.008</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009338181065839101</v>
+        <v>0.0093343855663514</v>
       </c>
       <c r="H77" t="n">
         <v>0.023</v>
@@ -6716,7 +6716,7 @@
         <v>0.005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0049373576087061</v>
+        <v>0.0049566082740662</v>
       </c>
       <c r="H80" t="n">
         <v>0.011</v>
@@ -6797,7 +6797,7 @@
         <v>0.005</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0049373576087061</v>
+        <v>0.0049566082740662</v>
       </c>
       <c r="H81" t="n">
         <v>0.011</v>
@@ -6955,24 +6955,24 @@
         <v>0.00292</v>
       </c>
       <c r="G83" t="n">
-        <v>0.003981013461929</v>
+        <v>0.0039481360334777</v>
       </c>
       <c r="H83" t="n">
         <v>0.0190165619088232</v>
       </c>
       <c r="I83" t="n">
-        <v>0.01113</v>
+        <v>0.0111</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00371</v>
+        <v>0.00364</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0053</v>
+        <v>0.00506</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0104</v>
+        <v>0.01011</v>
       </c>
       <c r="O83" t="n">
         <v>1820194.67</v>
@@ -7036,24 +7036,24 @@
         <v>0.00292</v>
       </c>
       <c r="G84" t="n">
-        <v>0.003981013461929</v>
+        <v>0.0039481360334777</v>
       </c>
       <c r="H84" t="n">
         <v>0.0190165619088232</v>
       </c>
       <c r="I84" t="n">
-        <v>0.01113</v>
+        <v>0.0111</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.00371</v>
+        <v>0.00364</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0053</v>
+        <v>0.00506</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0104</v>
+        <v>0.01011</v>
       </c>
       <c r="O84" t="n">
         <v>1820194.67</v>
@@ -7358,7 +7358,7 @@
         <v>0.153</v>
       </c>
       <c r="I88" t="n">
-        <v>0.08685</v>
+        <v>0.08656999999999999</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -7369,7 +7369,7 @@
         <v>0.07188</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08134</v>
+        <v>0.08144999999999999</v>
       </c>
       <c r="O88" t="n">
         <v>1820194.67</v>
@@ -7435,7 +7435,7 @@
         <v>0.153</v>
       </c>
       <c r="I89" t="n">
-        <v>0.08685</v>
+        <v>0.08656999999999999</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
         <v>0.07188</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08134</v>
+        <v>0.08144999999999999</v>
       </c>
       <c r="O89" t="n">
         <v>1820194.67</v>
@@ -7788,6 +7788,1035 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.44911111111111</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4.5475</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0048912884941192</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.009549999999999999</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0048912884941192</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.009549999999999999</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.00747</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00278</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0037511562194573</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0190165619088232</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.01021</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00278</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0037511562194573</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0190165619088232</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.01021</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.042271186440678</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.08665</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.06741</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.08477999999999999</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.042271186440678</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.08665</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.06741</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.08477999999999999</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0494067796610169</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.09032</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.07446999999999999</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.08690000000000001</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0494067796610169</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.09032</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.07446999999999999</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.08690000000000001</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.155084745762712</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.2247</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.2734</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.155084745762712</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.2247</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.2734</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0139661016949153</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.04675</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.02478</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Makakahi at end Kaiparoro Road</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0139661016949153</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.04675</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.02478</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1820194.67</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
+++ b/state_results/Rivers/MakakahiatendKaiparoroRoad_e2fee89472.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="57">
   <si>
     <t>site name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +627,13 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>0.006</v>
       </c>
       <c r="G2">
-        <v>0.0061628277496338</v>
+        <v>0.0061639434730357</v>
       </c>
       <c r="H2">
         <v>0.018</v>
@@ -654,19 +657,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -683,13 +686,13 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>0.006</v>
       </c>
       <c r="G3">
-        <v>0.0061628277496338</v>
+        <v>0.0061639434730357</v>
       </c>
       <c r="H3">
         <v>0.018</v>
@@ -713,19 +716,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -742,13 +745,13 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>0.00127</v>
       </c>
       <c r="G4">
-        <v>0.0034392679810637</v>
+        <v>0.0034173907884173</v>
       </c>
       <c r="H4">
         <v>0.0428874502007659</v>
@@ -757,10 +760,10 @@
         <v>0.01224</v>
       </c>
       <c r="L4">
-        <v>0.00128</v>
+        <v>0.00122</v>
       </c>
       <c r="M4">
-        <v>0.00506</v>
+        <v>0.00504</v>
       </c>
       <c r="N4">
         <v>0.009299999999999999</v>
@@ -772,19 +775,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -801,13 +804,13 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>0.00127</v>
       </c>
       <c r="G5">
-        <v>0.0034392679810637</v>
+        <v>0.0034173907884173</v>
       </c>
       <c r="H5">
         <v>0.0428874502007659</v>
@@ -816,10 +819,10 @@
         <v>0.01224</v>
       </c>
       <c r="L5">
-        <v>0.00128</v>
+        <v>0.00122</v>
       </c>
       <c r="M5">
-        <v>0.00506</v>
+        <v>0.00504</v>
       </c>
       <c r="N5">
         <v>0.009299999999999999</v>
@@ -831,19 +834,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -860,13 +863,13 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>0.016</v>
       </c>
       <c r="G6">
-        <v>0.0242244903505079</v>
+        <v>0.0242394074758366</v>
       </c>
       <c r="H6">
         <v>0.147</v>
@@ -875,7 +878,7 @@
         <v>0.08216</v>
       </c>
       <c r="L6">
-        <v>0.008999999999999999</v>
+        <v>0.0114</v>
       </c>
       <c r="M6">
         <v>0.03503</v>
@@ -890,19 +893,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -919,13 +922,13 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>0.016</v>
       </c>
       <c r="G7">
-        <v>0.0242244903505079</v>
+        <v>0.0242394074758366</v>
       </c>
       <c r="H7">
         <v>0.147</v>
@@ -934,7 +937,7 @@
         <v>0.08216</v>
       </c>
       <c r="L7">
-        <v>0.008999999999999999</v>
+        <v>0.0114</v>
       </c>
       <c r="M7">
         <v>0.03503</v>
@@ -949,19 +952,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -975,13 +978,13 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0.02315</v>
       </c>
       <c r="G8">
-        <v>0.0328140982573387</v>
+        <v>0.0328090349376887</v>
       </c>
       <c r="H8">
         <v>0.155</v>
@@ -990,7 +993,7 @@
         <v>0.0956</v>
       </c>
       <c r="L8">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="M8">
         <v>0.05302</v>
@@ -1005,19 +1008,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1031,13 +1034,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>0.02315</v>
       </c>
       <c r="G9">
-        <v>0.0328140982573387</v>
+        <v>0.0328090349376887</v>
       </c>
       <c r="H9">
         <v>0.155</v>
@@ -1046,7 +1049,7 @@
         <v>0.0956</v>
       </c>
       <c r="L9">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="M9">
         <v>0.05302</v>
@@ -1061,19 +1064,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1087,13 +1090,13 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>0.083</v>
       </c>
       <c r="G10">
-        <v>0.100146602110766</v>
+        <v>0.100171690783697</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -1102,7 +1105,7 @@
         <v>0.22365</v>
       </c>
       <c r="L10">
-        <v>0.08649999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="M10">
         <v>0.1419</v>
@@ -1117,19 +1120,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1143,13 +1146,13 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>0.083</v>
       </c>
       <c r="G11">
-        <v>0.100146602110766</v>
+        <v>0.100171690783697</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -1158,7 +1161,7 @@
         <v>0.22365</v>
       </c>
       <c r="L11">
-        <v>0.08649999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="M11">
         <v>0.1419</v>
@@ -1173,19 +1176,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1199,13 +1202,13 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>0.008</v>
       </c>
       <c r="G12">
-        <v>0.0091471209220361</v>
+        <v>0.009151956171106101</v>
       </c>
       <c r="H12">
         <v>0.024</v>
@@ -1214,7 +1217,7 @@
         <v>0.01935</v>
       </c>
       <c r="L12">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="M12">
         <v>0.01319</v>
@@ -1229,19 +1232,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1255,13 +1258,13 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>0.008</v>
       </c>
       <c r="G13">
-        <v>0.0091471209220361</v>
+        <v>0.009151956171106101</v>
       </c>
       <c r="H13">
         <v>0.024</v>
@@ -1270,7 +1273,7 @@
         <v>0.01935</v>
       </c>
       <c r="L13">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="M13">
         <v>0.01319</v>
@@ -1285,19 +1288,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1314,7 +1317,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>0.734</v>
@@ -1329,7 +1332,7 @@
         <v>0.746</v>
       </c>
       <c r="L14">
-        <v>0.723</v>
+        <v>0.734</v>
       </c>
       <c r="M14">
         <v>0.74425</v>
@@ -1344,16 +1347,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1370,7 +1373,7 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>2.725</v>
@@ -1385,7 +1388,7 @@
         <v>7.3</v>
       </c>
       <c r="L15">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="M15">
         <v>4.565</v>
@@ -1400,19 +1403,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1429,13 +1432,13 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>0.005</v>
       </c>
       <c r="G16">
-        <v>0.0057276052363774</v>
+        <v>0.0057313689618392</v>
       </c>
       <c r="H16">
         <v>0.018</v>
@@ -1444,7 +1447,7 @@
         <v>0.0105</v>
       </c>
       <c r="L16">
-        <v>0.006</v>
+        <v>0.0055</v>
       </c>
       <c r="M16">
         <v>0.00715</v>
@@ -1459,19 +1462,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1488,13 +1491,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>0.005</v>
       </c>
       <c r="G17">
-        <v>0.0057276052363774</v>
+        <v>0.0057313689618392</v>
       </c>
       <c r="H17">
         <v>0.018</v>
@@ -1503,7 +1506,7 @@
         <v>0.0105</v>
       </c>
       <c r="L17">
-        <v>0.006</v>
+        <v>0.0055</v>
       </c>
       <c r="M17">
         <v>0.00715</v>
@@ -1518,19 +1521,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1547,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>138</v>
@@ -1562,7 +1565,7 @@
         <v>142</v>
       </c>
       <c r="L18">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M18">
         <v>141.3</v>
@@ -1577,16 +1580,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1603,13 +1606,13 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>0.00151</v>
+        <v>0.00147</v>
       </c>
       <c r="G19">
-        <v>0.0034703902475815</v>
+        <v>0.0034814103326237</v>
       </c>
       <c r="H19">
         <v>0.0428874502007659</v>
@@ -1618,10 +1621,10 @@
         <v>0.01033</v>
       </c>
       <c r="L19">
-        <v>0.00152</v>
+        <v>0.00147</v>
       </c>
       <c r="M19">
-        <v>0.00488</v>
+        <v>0.00494</v>
       </c>
       <c r="N19">
         <v>0.00923</v>
@@ -1633,19 +1636,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1662,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20">
-        <v>0.00151</v>
+        <v>0.00147</v>
       </c>
       <c r="G20">
-        <v>0.0034703902475815</v>
+        <v>0.0034814103326237</v>
       </c>
       <c r="H20">
         <v>0.0428874502007659</v>
@@ -1677,10 +1680,10 @@
         <v>0.01033</v>
       </c>
       <c r="L20">
-        <v>0.00152</v>
+        <v>0.00147</v>
       </c>
       <c r="M20">
-        <v>0.00488</v>
+        <v>0.00494</v>
       </c>
       <c r="N20">
         <v>0.00923</v>
@@ -1692,19 +1695,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1721,13 +1724,13 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>0.02</v>
       </c>
       <c r="G21">
-        <v>0.0243577740985882</v>
+        <v>0.0243697077988511</v>
       </c>
       <c r="H21">
         <v>0.147</v>
@@ -1736,7 +1739,7 @@
         <v>0.06575</v>
       </c>
       <c r="L21">
-        <v>0.0105</v>
+        <v>0.01395</v>
       </c>
       <c r="M21">
         <v>0.03522</v>
@@ -1751,19 +1754,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1780,13 +1783,13 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>0.02</v>
       </c>
       <c r="G22">
-        <v>0.0243577740985882</v>
+        <v>0.0243697077988511</v>
       </c>
       <c r="H22">
         <v>0.147</v>
@@ -1795,7 +1798,7 @@
         <v>0.06575</v>
       </c>
       <c r="L22">
-        <v>0.0105</v>
+        <v>0.01395</v>
       </c>
       <c r="M22">
         <v>0.03522</v>
@@ -1810,19 +1813,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1839,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>8.33</v>
@@ -1854,7 +1857,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L23">
-        <v>8.206</v>
+        <v>8.33</v>
       </c>
       <c r="M23">
         <v>8.443</v>
@@ -1869,16 +1872,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1892,13 +1895,13 @@
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>0.027</v>
       </c>
       <c r="G24">
-        <v>0.0327785513331437</v>
+        <v>0.0327745006774237</v>
       </c>
       <c r="H24">
         <v>0.155</v>
@@ -1907,7 +1910,7 @@
         <v>0.074</v>
       </c>
       <c r="L24">
-        <v>0.0205</v>
+        <v>0.02215</v>
       </c>
       <c r="M24">
         <v>0.05045</v>
@@ -1922,19 +1925,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1948,13 +1951,13 @@
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>0.027</v>
       </c>
       <c r="G25">
-        <v>0.0327785513331437</v>
+        <v>0.0327745006774237</v>
       </c>
       <c r="H25">
         <v>0.155</v>
@@ -1963,7 +1966,7 @@
         <v>0.074</v>
       </c>
       <c r="L25">
-        <v>0.0205</v>
+        <v>0.02215</v>
       </c>
       <c r="M25">
         <v>0.05045</v>
@@ -1978,19 +1981,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2004,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>0.08500000000000001</v>
       </c>
       <c r="G26">
-        <v>0.101801923903017</v>
+        <v>0.101821901920351</v>
       </c>
       <c r="H26">
         <v>0.26</v>
@@ -2019,7 +2022,7 @@
         <v>0.21</v>
       </c>
       <c r="L26">
-        <v>0.083</v>
+        <v>0.09</v>
       </c>
       <c r="M26">
         <v>0.14</v>
@@ -2034,19 +2037,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2060,13 +2063,13 @@
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>0.08500000000000001</v>
       </c>
       <c r="G27">
-        <v>0.101801923903017</v>
+        <v>0.101821901920351</v>
       </c>
       <c r="H27">
         <v>0.26</v>
@@ -2075,7 +2078,7 @@
         <v>0.21</v>
       </c>
       <c r="L27">
-        <v>0.083</v>
+        <v>0.09</v>
       </c>
       <c r="M27">
         <v>0.14</v>
@@ -2090,19 +2093,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2116,13 +2119,13 @@
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>0.008</v>
       </c>
       <c r="G28">
-        <v>0.009376411104584301</v>
+        <v>0.0093802613955104</v>
       </c>
       <c r="H28">
         <v>0.024</v>
@@ -2146,19 +2149,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2172,13 +2175,13 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>0.008</v>
       </c>
       <c r="G29">
-        <v>0.009376411104584301</v>
+        <v>0.0093802613955104</v>
       </c>
       <c r="H29">
         <v>0.024</v>
@@ -2202,19 +2205,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2231,7 +2234,7 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>0.734</v>
@@ -2246,7 +2249,7 @@
         <v>0.746</v>
       </c>
       <c r="L30">
-        <v>0.723</v>
+        <v>0.734</v>
       </c>
       <c r="M30">
         <v>0.74425</v>
@@ -2261,16 +2264,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2287,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>2.75</v>
@@ -2302,7 +2305,7 @@
         <v>7.925</v>
       </c>
       <c r="L31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M31">
         <v>4.65</v>
@@ -2317,19 +2320,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2346,13 +2349,13 @@
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>0.005</v>
       </c>
       <c r="G32">
-        <v>0.0052096439645985</v>
+        <v>0.0052146499921649</v>
       </c>
       <c r="H32">
         <v>0.013</v>
@@ -2361,7 +2364,7 @@
         <v>0.00755</v>
       </c>
       <c r="L32">
-        <v>0.0055</v>
+        <v>0.005</v>
       </c>
       <c r="M32">
         <v>0.00647</v>
@@ -2376,19 +2379,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2405,13 +2408,13 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>0.005</v>
       </c>
       <c r="G33">
-        <v>0.0052096439645985</v>
+        <v>0.0052146499921649</v>
       </c>
       <c r="H33">
         <v>0.013</v>
@@ -2420,7 +2423,7 @@
         <v>0.00755</v>
       </c>
       <c r="L33">
-        <v>0.0055</v>
+        <v>0.005</v>
       </c>
       <c r="M33">
         <v>0.00647</v>
@@ -2435,19 +2438,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2464,7 +2467,7 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>138</v>
@@ -2479,7 +2482,7 @@
         <v>142</v>
       </c>
       <c r="L34">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M34">
         <v>141.3</v>
@@ -2494,16 +2497,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2520,28 +2523,28 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35">
-        <v>0.00205</v>
+        <v>0.00206</v>
       </c>
       <c r="G35">
-        <v>0.003362502578488</v>
+        <v>0.0034373616649922</v>
       </c>
       <c r="H35">
         <v>0.0164395627717916</v>
       </c>
       <c r="I35">
-        <v>0.01039</v>
+        <v>0.01064</v>
       </c>
       <c r="L35">
-        <v>0.00311</v>
+        <v>0.00236</v>
       </c>
       <c r="M35">
-        <v>0.0056</v>
+        <v>0.00592</v>
       </c>
       <c r="N35">
-        <v>0.00946</v>
+        <v>0.009679999999999999</v>
       </c>
       <c r="O35">
         <v>1820194.67</v>
@@ -2550,19 +2553,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2579,28 +2582,28 @@
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36">
-        <v>0.00205</v>
+        <v>0.00206</v>
       </c>
       <c r="G36">
-        <v>0.003362502578488</v>
+        <v>0.0034373616649922</v>
       </c>
       <c r="H36">
         <v>0.0164395627717916</v>
       </c>
       <c r="I36">
-        <v>0.01039</v>
+        <v>0.01064</v>
       </c>
       <c r="L36">
-        <v>0.00311</v>
+        <v>0.00236</v>
       </c>
       <c r="M36">
-        <v>0.0056</v>
+        <v>0.00592</v>
       </c>
       <c r="N36">
-        <v>0.00946</v>
+        <v>0.009679999999999999</v>
       </c>
       <c r="O36">
         <v>1820194.67</v>
@@ -2609,19 +2612,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2638,13 +2641,13 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>0.021</v>
       </c>
       <c r="G37">
-        <v>0.0272708063630906</v>
+        <v>0.027281930998929</v>
       </c>
       <c r="H37">
         <v>0.147</v>
@@ -2653,7 +2656,7 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="L37">
-        <v>0.0135</v>
+        <v>0.0145</v>
       </c>
       <c r="M37">
         <v>0.04094</v>
@@ -2668,19 +2671,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2697,13 +2700,13 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>0.021</v>
       </c>
       <c r="G38">
-        <v>0.0272708063630906</v>
+        <v>0.027281930998929</v>
       </c>
       <c r="H38">
         <v>0.147</v>
@@ -2712,7 +2715,7 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="L38">
-        <v>0.0135</v>
+        <v>0.0145</v>
       </c>
       <c r="M38">
         <v>0.04094</v>
@@ -2727,19 +2730,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2756,7 +2759,7 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>8.33</v>
@@ -2771,7 +2774,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L39">
-        <v>8.015000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="M39">
         <v>8.443</v>
@@ -2786,16 +2789,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2809,13 +2812,13 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>0.028</v>
       </c>
       <c r="G40">
-        <v>0.0346833953105577</v>
+        <v>0.0346796192755645</v>
       </c>
       <c r="H40">
         <v>0.155</v>
@@ -2824,7 +2827,7 @@
         <v>0.0751</v>
       </c>
       <c r="L40">
-        <v>0.0205</v>
+        <v>0.021</v>
       </c>
       <c r="M40">
         <v>0.05141</v>
@@ -2839,19 +2842,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2865,13 +2868,13 @@
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>0.028</v>
       </c>
       <c r="G41">
-        <v>0.0346833953105577</v>
+        <v>0.0346796192755645</v>
       </c>
       <c r="H41">
         <v>0.155</v>
@@ -2880,7 +2883,7 @@
         <v>0.0751</v>
       </c>
       <c r="L41">
-        <v>0.0205</v>
+        <v>0.021</v>
       </c>
       <c r="M41">
         <v>0.05141</v>
@@ -2895,19 +2898,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2921,13 +2924,13 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42">
         <v>0.09</v>
       </c>
       <c r="G42">
-        <v>0.104428879504457</v>
+        <v>0.104447164469474</v>
       </c>
       <c r="H42">
         <v>0.26</v>
@@ -2936,7 +2939,7 @@
         <v>0.21</v>
       </c>
       <c r="L42">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="M42">
         <v>0.1447</v>
@@ -2951,19 +2954,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -2977,13 +2980,13 @@
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>0.09</v>
       </c>
       <c r="G43">
-        <v>0.104428879504457</v>
+        <v>0.104447164469474</v>
       </c>
       <c r="H43">
         <v>0.26</v>
@@ -2992,7 +2995,7 @@
         <v>0.21</v>
       </c>
       <c r="L43">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="M43">
         <v>0.1447</v>
@@ -3007,19 +3010,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3033,13 +3036,13 @@
         <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>0.008</v>
       </c>
       <c r="G44">
-        <v>0.008802138977077101</v>
+        <v>0.0088056629721621</v>
       </c>
       <c r="H44">
         <v>0.022</v>
@@ -3063,19 +3066,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3089,13 +3092,13 @@
         <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>0.008</v>
       </c>
       <c r="G45">
-        <v>0.008802138977077101</v>
+        <v>0.0088056629721621</v>
       </c>
       <c r="H45">
         <v>0.022</v>
@@ -3119,19 +3122,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3148,7 +3151,7 @@
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>0.712</v>
@@ -3163,7 +3166,7 @@
         <v>0.746</v>
       </c>
       <c r="L46">
-        <v>0.68</v>
+        <v>0.712</v>
       </c>
       <c r="M46">
         <v>0.74425</v>
@@ -3178,16 +3181,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3204,7 +3207,7 @@
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>2.925</v>
@@ -3234,19 +3237,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3263,13 +3266,13 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48">
         <v>0.005</v>
       </c>
       <c r="G48">
-        <v>0.0047025042066702</v>
+        <v>0.0047075518633241</v>
       </c>
       <c r="H48">
         <v>0.013</v>
@@ -3293,19 +3296,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3322,13 +3325,13 @@
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>0.005</v>
       </c>
       <c r="G49">
-        <v>0.0047025042066702</v>
+        <v>0.0047075518633241</v>
       </c>
       <c r="H49">
         <v>0.013</v>
@@ -3352,19 +3355,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3381,7 +3384,7 @@
         <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <v>140</v>
@@ -3396,7 +3399,7 @@
         <v>142</v>
       </c>
       <c r="L50">
-        <v>140.625</v>
+        <v>140</v>
       </c>
       <c r="M50">
         <v>141.7375</v>
@@ -3411,16 +3414,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3437,28 +3440,28 @@
         <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51">
-        <v>0.00227</v>
+        <v>0.00241</v>
       </c>
       <c r="G51">
-        <v>0.0032581188045955</v>
+        <v>0.003340340702097</v>
       </c>
       <c r="H51">
-        <v>0.0125883538447549</v>
+        <v>0.0134019621888361</v>
       </c>
       <c r="I51">
-        <v>0.01043</v>
+        <v>0.01068</v>
       </c>
       <c r="L51">
-        <v>0.00351</v>
+        <v>0.0037</v>
       </c>
       <c r="M51">
-        <v>0.00496</v>
+        <v>0.00498</v>
       </c>
       <c r="N51">
-        <v>0.00957</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="O51">
         <v>1820194.67</v>
@@ -3467,19 +3470,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3496,28 +3499,28 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52">
-        <v>0.00227</v>
+        <v>0.00241</v>
       </c>
       <c r="G52">
-        <v>0.0032581188045955</v>
+        <v>0.003340340702097</v>
       </c>
       <c r="H52">
-        <v>0.0125883538447549</v>
+        <v>0.0134019621888361</v>
       </c>
       <c r="I52">
-        <v>0.01043</v>
+        <v>0.01068</v>
       </c>
       <c r="L52">
-        <v>0.00351</v>
+        <v>0.0037</v>
       </c>
       <c r="M52">
-        <v>0.00496</v>
+        <v>0.00498</v>
       </c>
       <c r="N52">
-        <v>0.00957</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="O52">
         <v>1820194.67</v>
@@ -3526,19 +3529,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3555,13 +3558,13 @@
         <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53">
         <v>0.0245</v>
       </c>
       <c r="G53">
-        <v>0.0310634064727991</v>
+        <v>0.0310747229127036</v>
       </c>
       <c r="H53">
         <v>0.147</v>
@@ -3570,7 +3573,7 @@
         <v>0.0784</v>
       </c>
       <c r="L53">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="M53">
         <v>0.049</v>
@@ -3585,19 +3588,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3614,13 +3617,13 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54">
         <v>0.0245</v>
       </c>
       <c r="G54">
-        <v>0.0310634064727991</v>
+        <v>0.0310747229127036</v>
       </c>
       <c r="H54">
         <v>0.147</v>
@@ -3629,7 +3632,7 @@
         <v>0.0784</v>
       </c>
       <c r="L54">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="M54">
         <v>0.049</v>
@@ -3644,19 +3647,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3673,7 +3676,7 @@
         <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55">
         <v>8.33</v>
@@ -3688,7 +3691,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L55">
-        <v>8.2355</v>
+        <v>8.33</v>
       </c>
       <c r="M55">
         <v>8.443</v>
@@ -3703,16 +3706,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3726,13 +3729,13 @@
         <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56">
         <v>0.032</v>
       </c>
       <c r="G56">
-        <v>0.0379417297124638</v>
+        <v>0.037937888573419</v>
       </c>
       <c r="H56">
         <v>0.155</v>
@@ -3741,7 +3744,7 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="L56">
-        <v>0.024</v>
+        <v>0.031</v>
       </c>
       <c r="M56">
         <v>0.05664</v>
@@ -3756,19 +3759,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3782,13 +3785,13 @@
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57">
         <v>0.032</v>
       </c>
       <c r="G57">
-        <v>0.0379417297124638</v>
+        <v>0.037937888573419</v>
       </c>
       <c r="H57">
         <v>0.155</v>
@@ -3797,7 +3800,7 @@
         <v>0.08409999999999999</v>
       </c>
       <c r="L57">
-        <v>0.024</v>
+        <v>0.031</v>
       </c>
       <c r="M57">
         <v>0.05664</v>
@@ -3812,19 +3815,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3838,13 +3841,13 @@
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58">
         <v>0.1</v>
       </c>
       <c r="G58">
-        <v>0.112574497649585</v>
+        <v>0.112587572117988</v>
       </c>
       <c r="H58">
         <v>0.26</v>
@@ -3853,7 +3856,7 @@
         <v>0.202</v>
       </c>
       <c r="L58">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="M58">
         <v>0.15</v>
@@ -3868,19 +3871,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3894,13 +3897,13 @@
         <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59">
         <v>0.1</v>
       </c>
       <c r="G59">
-        <v>0.112574497649585</v>
+        <v>0.112587572117988</v>
       </c>
       <c r="H59">
         <v>0.26</v>
@@ -3909,7 +3912,7 @@
         <v>0.202</v>
       </c>
       <c r="L59">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="M59">
         <v>0.15</v>
@@ -3924,19 +3927,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -3950,13 +3953,13 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60">
         <v>0.008</v>
       </c>
       <c r="G60">
-        <v>0.008712520683578501</v>
+        <v>0.0087161054371994</v>
       </c>
       <c r="H60">
         <v>0.022</v>
@@ -3980,19 +3983,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4006,13 +4009,13 @@
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61">
         <v>0.008</v>
       </c>
       <c r="G61">
-        <v>0.008712520683578501</v>
+        <v>0.0087161054371994</v>
       </c>
       <c r="H61">
         <v>0.022</v>
@@ -4036,19 +4039,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4065,7 +4068,7 @@
         <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62">
         <v>0.67</v>
@@ -4080,7 +4083,7 @@
         <v>0.741</v>
       </c>
       <c r="L62">
-        <v>0.659</v>
+        <v>0.67</v>
       </c>
       <c r="M62">
         <v>0.73085</v>
@@ -4095,16 +4098,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4121,7 +4124,7 @@
         <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>2.95</v>
@@ -4136,7 +4139,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="L63">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="M63">
         <v>4.834</v>
@@ -4151,19 +4154,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4180,13 +4183,13 @@
         <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64">
         <v>0.005</v>
       </c>
       <c r="G64">
-        <v>0.0044411993690501</v>
+        <v>0.0044450356436226</v>
       </c>
       <c r="H64">
         <v>0.011</v>
@@ -4210,19 +4213,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4239,13 +4242,13 @@
         <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>0.005</v>
       </c>
       <c r="G65">
-        <v>0.0044411993690501</v>
+        <v>0.0044450356436226</v>
       </c>
       <c r="H65">
         <v>0.011</v>
@@ -4269,19 +4272,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4298,7 +4301,7 @@
         <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66">
         <v>136.43</v>
@@ -4313,7 +4316,7 @@
         <v>142</v>
       </c>
       <c r="L66">
-        <v>138.35</v>
+        <v>136.43</v>
       </c>
       <c r="M66">
         <v>141.7375</v>
@@ -4328,16 +4331,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4354,28 +4357,28 @@
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67">
-        <v>0.00271</v>
+        <v>0.00276</v>
       </c>
       <c r="G67">
-        <v>0.0036123827689486</v>
+        <v>0.0037099622889062</v>
       </c>
       <c r="H67">
-        <v>0.0125883538447549</v>
+        <v>0.0134019621888361</v>
       </c>
       <c r="I67">
-        <v>0.01044</v>
+        <v>0.01069</v>
       </c>
       <c r="L67">
-        <v>0.00391</v>
+        <v>0.00414</v>
       </c>
       <c r="M67">
-        <v>0.00514</v>
+        <v>0.00544</v>
       </c>
       <c r="N67">
-        <v>0.009650000000000001</v>
+        <v>0.00997</v>
       </c>
       <c r="O67">
         <v>1820194.67</v>
@@ -4384,19 +4387,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4413,28 +4416,28 @@
         <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68">
-        <v>0.00271</v>
+        <v>0.00276</v>
       </c>
       <c r="G68">
-        <v>0.0036123827689486</v>
+        <v>0.0037099622889062</v>
       </c>
       <c r="H68">
-        <v>0.0125883538447549</v>
+        <v>0.0134019621888361</v>
       </c>
       <c r="I68">
-        <v>0.01044</v>
+        <v>0.01069</v>
       </c>
       <c r="L68">
-        <v>0.00391</v>
+        <v>0.00414</v>
       </c>
       <c r="M68">
-        <v>0.00514</v>
+        <v>0.00544</v>
       </c>
       <c r="N68">
-        <v>0.009650000000000001</v>
+        <v>0.00997</v>
       </c>
       <c r="O68">
         <v>1820194.67</v>
@@ -4443,19 +4446,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4472,13 +4475,13 @@
         <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69">
         <v>0.026</v>
       </c>
       <c r="G69">
-        <v>0.0316612533081511</v>
+        <v>0.0316703725352448</v>
       </c>
       <c r="H69">
         <v>0.08500000000000001</v>
@@ -4487,7 +4490,7 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="L69">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="M69">
         <v>0.05528</v>
@@ -4502,19 +4505,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4531,13 +4534,13 @@
         <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F70">
         <v>0.026</v>
       </c>
       <c r="G70">
-        <v>0.0316612533081511</v>
+        <v>0.0316703725352448</v>
       </c>
       <c r="H70">
         <v>0.08500000000000001</v>
@@ -4546,7 +4549,7 @@
         <v>0.07480000000000001</v>
       </c>
       <c r="L70">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="M70">
         <v>0.05528</v>
@@ -4561,19 +4564,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4590,7 +4593,7 @@
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F71">
         <v>8.289999999999999</v>
@@ -4605,7 +4608,7 @@
         <v>8.43</v>
       </c>
       <c r="L71">
-        <v>8.2155</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="M71">
         <v>8.395</v>
@@ -4620,16 +4623,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4643,13 +4646,13 @@
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F72">
         <v>0.033</v>
       </c>
       <c r="G72">
-        <v>0.0384730697567702</v>
+        <v>0.0384708226713444</v>
       </c>
       <c r="H72">
         <v>0.091</v>
@@ -4658,7 +4661,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="L72">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="M72">
         <v>0.06628000000000001</v>
@@ -4673,19 +4676,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4699,13 +4702,13 @@
         <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F73">
         <v>0.033</v>
       </c>
       <c r="G73">
-        <v>0.0384730697567702</v>
+        <v>0.0384708226713444</v>
       </c>
       <c r="H73">
         <v>0.091</v>
@@ -4714,7 +4717,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="L73">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="M73">
         <v>0.06628000000000001</v>
@@ -4729,19 +4732,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4755,13 +4758,13 @@
         <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74">
         <v>0.11</v>
       </c>
       <c r="G74">
-        <v>0.117265642268628</v>
+        <v>0.117272396177115</v>
       </c>
       <c r="H74">
         <v>0.28</v>
@@ -4770,7 +4773,7 @@
         <v>0.186</v>
       </c>
       <c r="L74">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="M74">
         <v>0.1564</v>
@@ -4785,19 +4788,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4811,13 +4814,13 @@
         <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75">
         <v>0.11</v>
       </c>
       <c r="G75">
-        <v>0.117265642268628</v>
+        <v>0.117272396177115</v>
       </c>
       <c r="H75">
         <v>0.28</v>
@@ -4826,7 +4829,7 @@
         <v>0.186</v>
       </c>
       <c r="L75">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="M75">
         <v>0.1564</v>
@@ -4841,19 +4844,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -4867,13 +4870,13 @@
         <v>43</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F76">
         <v>0.008</v>
       </c>
       <c r="G76">
-        <v>0.0093343855663514</v>
+        <v>0.0093363266262866</v>
       </c>
       <c r="H76">
         <v>0.023</v>
@@ -4897,19 +4900,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -4923,13 +4926,13 @@
         <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F77">
         <v>0.008</v>
       </c>
       <c r="G77">
-        <v>0.0093343855663514</v>
+        <v>0.0093363266262866</v>
       </c>
       <c r="H77">
         <v>0.023</v>
@@ -4953,19 +4956,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -4982,7 +4985,7 @@
         <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F78">
         <v>0.65</v>
@@ -4997,7 +5000,7 @@
         <v>0.741</v>
       </c>
       <c r="L78">
-        <v>0.649</v>
+        <v>0.65</v>
       </c>
       <c r="M78">
         <v>0.71615</v>
@@ -5012,16 +5015,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5038,7 +5041,7 @@
         <v>44</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79">
         <v>2.75</v>
@@ -5053,7 +5056,7 @@
         <v>5.6</v>
       </c>
       <c r="L79">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="M79">
         <v>4.44</v>
@@ -5068,19 +5071,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5097,13 +5100,13 @@
         <v>44</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80">
         <v>0.005</v>
       </c>
       <c r="G80">
-        <v>0.0049566082740662</v>
+        <v>0.004959939393323</v>
       </c>
       <c r="H80">
         <v>0.011</v>
@@ -5127,19 +5130,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5156,13 +5159,13 @@
         <v>44</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F81">
         <v>0.005</v>
       </c>
       <c r="G81">
-        <v>0.0049566082740662</v>
+        <v>0.004959939393323</v>
       </c>
       <c r="H81">
         <v>0.011</v>
@@ -5186,19 +5189,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5215,7 +5218,7 @@
         <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F82">
         <v>135.45</v>
@@ -5230,7 +5233,7 @@
         <v>141.25</v>
       </c>
       <c r="L82">
-        <v>132.725</v>
+        <v>135.45</v>
       </c>
       <c r="M82">
         <v>139.563</v>
@@ -5245,16 +5248,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5271,28 +5274,28 @@
         <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83">
         <v>0.00292</v>
       </c>
       <c r="G83">
-        <v>0.0039481360334777</v>
+        <v>0.0040394027808114</v>
       </c>
       <c r="H83">
         <v>0.0190165619088232</v>
       </c>
       <c r="I83">
-        <v>0.0111</v>
+        <v>0.01113</v>
       </c>
       <c r="L83">
-        <v>0.00364</v>
+        <v>0.0036</v>
       </c>
       <c r="M83">
-        <v>0.00506</v>
+        <v>0.00533</v>
       </c>
       <c r="N83">
-        <v>0.01011</v>
+        <v>0.01033</v>
       </c>
       <c r="O83">
         <v>1820194.67</v>
@@ -5301,19 +5304,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5330,28 +5333,28 @@
         <v>44</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84">
         <v>0.00292</v>
       </c>
       <c r="G84">
-        <v>0.0039481360334777</v>
+        <v>0.0040394027808114</v>
       </c>
       <c r="H84">
         <v>0.0190165619088232</v>
       </c>
       <c r="I84">
-        <v>0.0111</v>
+        <v>0.01113</v>
       </c>
       <c r="L84">
-        <v>0.00364</v>
+        <v>0.0036</v>
       </c>
       <c r="M84">
-        <v>0.00506</v>
+        <v>0.00533</v>
       </c>
       <c r="N84">
-        <v>0.01011</v>
+        <v>0.01033</v>
       </c>
       <c r="O84">
         <v>1820194.67</v>
@@ -5360,19 +5363,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5389,7 +5392,7 @@
         <v>44</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85">
         <v>0.033</v>
@@ -5404,7 +5407,7 @@
         <v>0.0813</v>
       </c>
       <c r="L85">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="M85">
         <v>0.06547</v>
@@ -5419,19 +5422,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5448,7 +5451,7 @@
         <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86">
         <v>0.033</v>
@@ -5463,7 +5466,7 @@
         <v>0.0813</v>
       </c>
       <c r="L86">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="M86">
         <v>0.06547</v>
@@ -5478,19 +5481,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5507,7 +5510,7 @@
         <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87">
         <v>8.141</v>
@@ -5522,7 +5525,7 @@
         <v>8.43</v>
       </c>
       <c r="L87">
-        <v>7.9655</v>
+        <v>8.141</v>
       </c>
       <c r="M87">
         <v>8.381</v>
@@ -5537,16 +5540,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5560,7 +5563,7 @@
         <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88">
         <v>0.041</v>
@@ -5575,7 +5578,7 @@
         <v>0.08656999999999999</v>
       </c>
       <c r="L88">
-        <v>0.0455</v>
+        <v>0.045</v>
       </c>
       <c r="M88">
         <v>0.07188</v>
@@ -5590,19 +5593,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5616,7 +5619,7 @@
         <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89">
         <v>0.041</v>
@@ -5631,7 +5634,7 @@
         <v>0.08656999999999999</v>
       </c>
       <c r="L89">
-        <v>0.0455</v>
+        <v>0.045</v>
       </c>
       <c r="M89">
         <v>0.07188</v>
@@ -5646,19 +5649,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5672,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90">
         <v>0.11</v>
@@ -5687,7 +5690,7 @@
         <v>0.271</v>
       </c>
       <c r="L90">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="M90">
         <v>0.16</v>
@@ -5702,19 +5705,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5728,7 +5731,7 @@
         <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F91">
         <v>0.11</v>
@@ -5743,7 +5746,7 @@
         <v>0.271</v>
       </c>
       <c r="L91">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="M91">
         <v>0.16</v>
@@ -5758,19 +5761,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5784,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92">
         <v>0.008</v>
@@ -5814,19 +5817,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -5840,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F93">
         <v>0.008</v>
@@ -5870,19 +5873,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -5899,7 +5902,7 @@
         <v>45</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F94">
         <v>0.649</v>
@@ -5929,16 +5932,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -5955,7 +5958,7 @@
         <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F95">
         <v>2.15</v>
@@ -5985,19 +5988,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6014,13 +6017,13 @@
         <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96">
         <v>0.005</v>
       </c>
       <c r="G96">
-        <v>0.0048912884941192</v>
+        <v>0.004891943120652</v>
       </c>
       <c r="H96">
         <v>0.011</v>
@@ -6029,7 +6032,7 @@
         <v>0.009549999999999999</v>
       </c>
       <c r="L96">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="M96">
         <v>0.00747</v>
@@ -6044,19 +6047,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6073,13 +6076,13 @@
         <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97">
         <v>0.005</v>
       </c>
       <c r="G97">
-        <v>0.0048912884941192</v>
+        <v>0.004891943120652</v>
       </c>
       <c r="H97">
         <v>0.011</v>
@@ -6088,7 +6091,7 @@
         <v>0.009549999999999999</v>
       </c>
       <c r="L97">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="M97">
         <v>0.00747</v>
@@ -6103,19 +6106,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6132,7 +6135,7 @@
         <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98">
         <v>132.725</v>
@@ -6162,16 +6165,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6188,28 +6191,28 @@
         <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99">
         <v>0.00278</v>
       </c>
       <c r="G99">
-        <v>0.0037511562194573</v>
+        <v>0.0038089147975199</v>
       </c>
       <c r="H99">
         <v>0.0190165619088232</v>
       </c>
       <c r="I99">
-        <v>0.011</v>
+        <v>0.01106</v>
       </c>
       <c r="L99">
-        <v>0.00313</v>
+        <v>0.00329</v>
       </c>
       <c r="M99">
-        <v>0.00483</v>
+        <v>0.00493</v>
       </c>
       <c r="N99">
-        <v>0.01021</v>
+        <v>0.01044</v>
       </c>
       <c r="O99">
         <v>1820194.67</v>
@@ -6218,19 +6221,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6247,28 +6250,28 @@
         <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100">
         <v>0.00278</v>
       </c>
       <c r="G100">
-        <v>0.0037511562194573</v>
+        <v>0.0038089147975199</v>
       </c>
       <c r="H100">
         <v>0.0190165619088232</v>
       </c>
       <c r="I100">
-        <v>0.011</v>
+        <v>0.01106</v>
       </c>
       <c r="L100">
-        <v>0.00313</v>
+        <v>0.00329</v>
       </c>
       <c r="M100">
-        <v>0.00483</v>
+        <v>0.00493</v>
       </c>
       <c r="N100">
-        <v>0.01021</v>
+        <v>0.01044</v>
       </c>
       <c r="O100">
         <v>1820194.67</v>
@@ -6277,19 +6280,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6306,7 +6309,7 @@
         <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101">
         <v>0.036</v>
@@ -6321,7 +6324,7 @@
         <v>0.08665</v>
       </c>
       <c r="L101">
-        <v>0.0425</v>
+        <v>0.042</v>
       </c>
       <c r="M101">
         <v>0.06741</v>
@@ -6336,19 +6339,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6365,7 +6368,7 @@
         <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102">
         <v>0.036</v>
@@ -6380,7 +6383,7 @@
         <v>0.08665</v>
       </c>
       <c r="L102">
-        <v>0.0425</v>
+        <v>0.042</v>
       </c>
       <c r="M102">
         <v>0.06741</v>
@@ -6395,19 +6398,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6424,7 +6427,7 @@
         <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103">
         <v>7.9655</v>
@@ -6454,16 +6457,16 @@
         <v>5489791.61</v>
       </c>
       <c r="Q103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6477,7 +6480,7 @@
         <v>45</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F104">
         <v>0.042</v>
@@ -6492,7 +6495,7 @@
         <v>0.09032</v>
       </c>
       <c r="L104">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="M104">
         <v>0.07446999999999999</v>
@@ -6507,19 +6510,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6533,7 +6536,7 @@
         <v>45</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F105">
         <v>0.042</v>
@@ -6548,7 +6551,7 @@
         <v>0.09032</v>
       </c>
       <c r="L105">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="M105">
         <v>0.07446999999999999</v>
@@ -6563,19 +6566,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6589,7 +6592,7 @@
         <v>45</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106">
         <v>0.13</v>
@@ -6619,19 +6622,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6645,7 +6648,7 @@
         <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107">
         <v>0.13</v>
@@ -6675,19 +6678,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6701,7 +6704,7 @@
         <v>45</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F108">
         <v>0.008999999999999999</v>
@@ -6716,7 +6719,7 @@
         <v>0.04675</v>
       </c>
       <c r="L108">
-        <v>0.008500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="M108">
         <v>0.019</v>
@@ -6731,19 +6734,19 @@
         <v>5489791.61</v>
       </c>
       <c r="Q108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6757,7 +6760,7 @@
         <v>45</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F109">
         <v>0.008999999999999999</v>
@@ -6772,7 +6775,7 @@
         <v>0.04675</v>
       </c>
       <c r="L109">
-        <v>0.008500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="M109">
         <v>0.019</v>
@@ -6787,19 +6790,936 @@
         <v>5489791.61</v>
       </c>
       <c r="Q109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110">
+        <v>0.66</v>
+      </c>
+      <c r="G110">
+        <v>0.6617499999999999</v>
+      </c>
+      <c r="H110">
+        <v>0.679</v>
+      </c>
+      <c r="I110">
+        <v>0.679</v>
+      </c>
+      <c r="L110">
+        <v>0.66</v>
+      </c>
+      <c r="M110">
+        <v>0.67738</v>
+      </c>
+      <c r="N110">
+        <v>0.679</v>
+      </c>
+      <c r="O110">
+        <v>1820194.67</v>
+      </c>
+      <c r="P110">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>48</v>
+      </c>
+      <c r="R110" t="s">
+        <v>49</v>
+      </c>
+      <c r="S110" t="s">
+        <v>50</v>
+      </c>
+      <c r="T110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111">
+        <v>1.725</v>
+      </c>
+      <c r="G111">
+        <v>2.16978260869565</v>
+      </c>
+      <c r="H111">
+        <v>9</v>
+      </c>
+      <c r="I111">
+        <v>5.2</v>
+      </c>
+      <c r="L111">
+        <v>1.8</v>
+      </c>
+      <c r="M111">
+        <v>3.658</v>
+      </c>
+      <c r="N111">
+        <v>4.964</v>
+      </c>
+      <c r="O111">
+        <v>1820194.67</v>
+      </c>
+      <c r="P111">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>48</v>
+      </c>
+      <c r="R111" t="s">
+        <v>49</v>
+      </c>
+      <c r="S111" t="s">
+        <v>50</v>
+      </c>
+      <c r="T111" t="s">
+        <v>51</v>
+      </c>
+      <c r="U111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112">
+        <v>0.004</v>
+      </c>
+      <c r="G112">
+        <v>0.0046980608047779</v>
+      </c>
+      <c r="H112">
+        <v>0.011</v>
+      </c>
+      <c r="I112">
+        <v>0.009549999999999999</v>
+      </c>
+      <c r="L112">
+        <v>0.004</v>
+      </c>
+      <c r="M112">
+        <v>0.008</v>
+      </c>
+      <c r="N112">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O112">
+        <v>1820194.67</v>
+      </c>
+      <c r="P112">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>48</v>
+      </c>
+      <c r="R112" t="s">
+        <v>49</v>
+      </c>
+      <c r="S112" t="s">
+        <v>50</v>
+      </c>
+      <c r="T112" t="s">
+        <v>51</v>
+      </c>
+      <c r="U112" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113">
+        <v>0.004</v>
+      </c>
+      <c r="G113">
+        <v>0.0046980608047779</v>
+      </c>
+      <c r="H113">
+        <v>0.011</v>
+      </c>
+      <c r="I113">
+        <v>0.009549999999999999</v>
+      </c>
+      <c r="L113">
+        <v>0.004</v>
+      </c>
+      <c r="M113">
+        <v>0.008</v>
+      </c>
+      <c r="N113">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O113">
+        <v>1820194.67</v>
+      </c>
+      <c r="P113">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>48</v>
+      </c>
+      <c r="R113" t="s">
+        <v>49</v>
+      </c>
+      <c r="S113" t="s">
+        <v>50</v>
+      </c>
+      <c r="T113" t="s">
+        <v>51</v>
+      </c>
+      <c r="U113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114">
+        <v>138.25</v>
+      </c>
+      <c r="G114">
+        <v>136.6875</v>
+      </c>
+      <c r="H114">
+        <v>141.25</v>
+      </c>
+      <c r="I114">
+        <v>141.25</v>
+      </c>
+      <c r="L114">
+        <v>138.25</v>
+      </c>
+      <c r="M114">
+        <v>141.214</v>
+      </c>
+      <c r="N114">
+        <v>141.25</v>
+      </c>
+      <c r="O114">
+        <v>1820194.67</v>
+      </c>
+      <c r="P114">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>48</v>
+      </c>
+      <c r="R114" t="s">
+        <v>49</v>
+      </c>
+      <c r="S114" t="s">
+        <v>50</v>
+      </c>
+      <c r="T114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115">
+        <v>0.00222</v>
+      </c>
+      <c r="G115">
+        <v>0.0050365990637524</v>
+      </c>
+      <c r="H115">
+        <v>0.0613833365849879</v>
+      </c>
+      <c r="I115">
+        <v>0.02171</v>
+      </c>
+      <c r="L115">
+        <v>0.00285</v>
+      </c>
+      <c r="M115">
+        <v>0.00648</v>
+      </c>
+      <c r="N115">
+        <v>0.01131</v>
+      </c>
+      <c r="O115">
+        <v>1820194.67</v>
+      </c>
+      <c r="P115">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>48</v>
+      </c>
+      <c r="R115" t="s">
+        <v>49</v>
+      </c>
+      <c r="S115" t="s">
+        <v>50</v>
+      </c>
+      <c r="T115" t="s">
+        <v>51</v>
+      </c>
+      <c r="U115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116">
+        <v>0.00222</v>
+      </c>
+      <c r="G116">
+        <v>0.0050365990637524</v>
+      </c>
+      <c r="H116">
+        <v>0.0613833365849879</v>
+      </c>
+      <c r="I116">
+        <v>0.02171</v>
+      </c>
+      <c r="L116">
+        <v>0.00285</v>
+      </c>
+      <c r="M116">
+        <v>0.00648</v>
+      </c>
+      <c r="N116">
+        <v>0.01131</v>
+      </c>
+      <c r="O116">
+        <v>1820194.67</v>
+      </c>
+      <c r="P116">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>48</v>
+      </c>
+      <c r="R116" t="s">
+        <v>49</v>
+      </c>
+      <c r="S116" t="s">
+        <v>50</v>
+      </c>
+      <c r="T116" t="s">
+        <v>51</v>
+      </c>
+      <c r="U116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117">
+        <v>0.043</v>
+      </c>
+      <c r="G117">
+        <v>0.0498305084745763</v>
+      </c>
+      <c r="H117">
+        <v>0.146</v>
+      </c>
+      <c r="I117">
+        <v>0.0983</v>
+      </c>
+      <c r="L117">
+        <v>0.052</v>
+      </c>
+      <c r="M117">
+        <v>0.08082</v>
+      </c>
+      <c r="N117">
+        <v>0.0919</v>
+      </c>
+      <c r="O117">
+        <v>1820194.67</v>
+      </c>
+      <c r="P117">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>48</v>
+      </c>
+      <c r="R117" t="s">
+        <v>49</v>
+      </c>
+      <c r="S117" t="s">
+        <v>50</v>
+      </c>
+      <c r="T117" t="s">
+        <v>51</v>
+      </c>
+      <c r="U117" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118">
+        <v>0.043</v>
+      </c>
+      <c r="G118">
+        <v>0.0498305084745763</v>
+      </c>
+      <c r="H118">
+        <v>0.146</v>
+      </c>
+      <c r="I118">
+        <v>0.0983</v>
+      </c>
+      <c r="L118">
+        <v>0.052</v>
+      </c>
+      <c r="M118">
+        <v>0.08082</v>
+      </c>
+      <c r="N118">
+        <v>0.0919</v>
+      </c>
+      <c r="O118">
+        <v>1820194.67</v>
+      </c>
+      <c r="P118">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>48</v>
+      </c>
+      <c r="R118" t="s">
+        <v>49</v>
+      </c>
+      <c r="S118" t="s">
+        <v>50</v>
+      </c>
+      <c r="T118" t="s">
+        <v>51</v>
+      </c>
+      <c r="U118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119">
+        <v>8.2155</v>
+      </c>
+      <c r="G119">
+        <v>8.14325</v>
+      </c>
+      <c r="H119">
+        <v>8.352</v>
+      </c>
+      <c r="I119">
+        <v>8.352</v>
+      </c>
+      <c r="L119">
+        <v>8.2155</v>
+      </c>
+      <c r="M119">
+        <v>8.34084</v>
+      </c>
+      <c r="N119">
+        <v>8.352</v>
+      </c>
+      <c r="O119">
+        <v>1820194.67</v>
+      </c>
+      <c r="P119">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>48</v>
+      </c>
+      <c r="R119" t="s">
+        <v>49</v>
+      </c>
+      <c r="S119" t="s">
+        <v>50</v>
+      </c>
+      <c r="T119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120">
+        <v>0.055</v>
+      </c>
+      <c r="G120">
+        <v>0.0595932203389831</v>
+      </c>
+      <c r="H120">
+        <v>0.168</v>
+      </c>
+      <c r="I120">
+        <v>0.12085</v>
+      </c>
+      <c r="L120">
+        <v>0.056</v>
+      </c>
+      <c r="M120">
+        <v>0.0887</v>
+      </c>
+      <c r="N120">
+        <v>0.1089</v>
+      </c>
+      <c r="O120">
+        <v>1820194.67</v>
+      </c>
+      <c r="P120">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>48</v>
+      </c>
+      <c r="R120" t="s">
+        <v>49</v>
+      </c>
+      <c r="S120" t="s">
+        <v>50</v>
+      </c>
+      <c r="T120" t="s">
+        <v>51</v>
+      </c>
+      <c r="U120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121">
+        <v>0.055</v>
+      </c>
+      <c r="G121">
+        <v>0.0595932203389831</v>
+      </c>
+      <c r="H121">
+        <v>0.168</v>
+      </c>
+      <c r="I121">
+        <v>0.12085</v>
+      </c>
+      <c r="L121">
+        <v>0.056</v>
+      </c>
+      <c r="M121">
+        <v>0.0887</v>
+      </c>
+      <c r="N121">
+        <v>0.1089</v>
+      </c>
+      <c r="O121">
+        <v>1820194.67</v>
+      </c>
+      <c r="P121">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>48</v>
+      </c>
+      <c r="R121" t="s">
+        <v>49</v>
+      </c>
+      <c r="S121" t="s">
+        <v>50</v>
+      </c>
+      <c r="T121" t="s">
+        <v>51</v>
+      </c>
+      <c r="U121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122">
+        <v>0.14</v>
+      </c>
+      <c r="G122">
+        <v>0.172203389830508</v>
+      </c>
+      <c r="H122">
+        <v>0.6</v>
+      </c>
+      <c r="I122">
+        <v>0.3655</v>
+      </c>
+      <c r="L122">
+        <v>0.15</v>
+      </c>
+      <c r="M122">
+        <v>0.25</v>
+      </c>
+      <c r="N122">
+        <v>0.2956</v>
+      </c>
+      <c r="O122">
+        <v>1820194.67</v>
+      </c>
+      <c r="P122">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>48</v>
+      </c>
+      <c r="R122" t="s">
+        <v>49</v>
+      </c>
+      <c r="S122" t="s">
+        <v>50</v>
+      </c>
+      <c r="T122" t="s">
+        <v>51</v>
+      </c>
+      <c r="U122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123">
+        <v>0.14</v>
+      </c>
+      <c r="G123">
+        <v>0.172203389830508</v>
+      </c>
+      <c r="H123">
+        <v>0.6</v>
+      </c>
+      <c r="I123">
+        <v>0.3655</v>
+      </c>
+      <c r="L123">
+        <v>0.15</v>
+      </c>
+      <c r="M123">
+        <v>0.25</v>
+      </c>
+      <c r="N123">
+        <v>0.2956</v>
+      </c>
+      <c r="O123">
+        <v>1820194.67</v>
+      </c>
+      <c r="P123">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>48</v>
+      </c>
+      <c r="R123" t="s">
+        <v>49</v>
+      </c>
+      <c r="S123" t="s">
+        <v>50</v>
+      </c>
+      <c r="T123" t="s">
+        <v>51</v>
+      </c>
+      <c r="U123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G124">
+        <v>0.0143220338983051</v>
+      </c>
+      <c r="H124">
+        <v>0.092</v>
+      </c>
+      <c r="I124">
+        <v>0.04675</v>
+      </c>
+      <c r="L124">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M124">
+        <v>0.01947</v>
+      </c>
+      <c r="N124">
+        <v>0.02578</v>
+      </c>
+      <c r="O124">
+        <v>1820194.67</v>
+      </c>
+      <c r="P124">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>48</v>
+      </c>
+      <c r="R124" t="s">
+        <v>49</v>
+      </c>
+      <c r="S124" t="s">
+        <v>50</v>
+      </c>
+      <c r="T124" t="s">
+        <v>51</v>
+      </c>
+      <c r="U124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G125">
+        <v>0.0143220338983051</v>
+      </c>
+      <c r="H125">
+        <v>0.092</v>
+      </c>
+      <c r="I125">
+        <v>0.04675</v>
+      </c>
+      <c r="L125">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M125">
+        <v>0.01947</v>
+      </c>
+      <c r="N125">
+        <v>0.02578</v>
+      </c>
+      <c r="O125">
+        <v>1820194.67</v>
+      </c>
+      <c r="P125">
+        <v>5489791.61</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>48</v>
+      </c>
+      <c r="R125" t="s">
+        <v>49</v>
+      </c>
+      <c r="S125" t="s">
+        <v>50</v>
+      </c>
+      <c r="T125" t="s">
+        <v>51</v>
+      </c>
+      <c r="U125" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
